--- a/natmiOut/OldD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,308 +534,308 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.3427090196188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H2">
-        <v>50.3427090196188</v>
+        <v>100.699955</v>
       </c>
       <c r="I2">
-        <v>0.1305911792386547</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J2">
-        <v>0.1305911792386547</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.1586209611413</v>
+        <v>0.395945</v>
       </c>
       <c r="N2">
-        <v>1.1586209611413</v>
+        <v>0.79189</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.20589367581143</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1897032408784863</v>
       </c>
       <c r="Q2">
-        <v>58.32811791076753</v>
+        <v>19.9358218412375</v>
       </c>
       <c r="R2">
-        <v>58.32811791076753</v>
+        <v>79.74328736494999</v>
       </c>
       <c r="S2">
-        <v>0.1305911792386547</v>
+        <v>0.02626339306655223</v>
       </c>
       <c r="T2">
-        <v>0.1305911792386547</v>
+        <v>0.01785673193051547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.52342071689991</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H3">
-        <v>74.52342071689991</v>
+        <v>100.699955</v>
       </c>
       <c r="I3">
-        <v>0.1933169982673301</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J3">
-        <v>0.1933169982673301</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.1586209611413</v>
+        <v>0.08066233333333334</v>
       </c>
       <c r="N3">
-        <v>1.1586209611413</v>
+        <v>0.241987</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.04194487696404005</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.05796981670492401</v>
       </c>
       <c r="Q3">
-        <v>86.34439733855204</v>
+        <v>4.061346668430833</v>
       </c>
       <c r="R3">
-        <v>86.34439733855204</v>
+        <v>24.368080010585</v>
       </c>
       <c r="S3">
-        <v>0.1933169982673301</v>
+        <v>0.005350406157417296</v>
       </c>
       <c r="T3">
-        <v>0.1933169982673301</v>
+        <v>0.005456688415903277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.4582230744781</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H4">
-        <v>82.4582230744781</v>
+        <v>100.699955</v>
       </c>
       <c r="I4">
-        <v>0.21390022108313</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J4">
-        <v>0.21390022108313</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.1586209611413</v>
+        <v>0.1821076666666667</v>
       </c>
       <c r="N4">
-        <v>1.1586209611413</v>
+        <v>0.546323</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.09469703338454236</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1308758080875592</v>
       </c>
       <c r="Q4">
-        <v>95.53782567255554</v>
+        <v>9.169116919244166</v>
       </c>
       <c r="R4">
-        <v>95.53782567255554</v>
+        <v>55.01470151546499</v>
       </c>
       <c r="S4">
-        <v>0.21390022108313</v>
+        <v>0.01207936766495179</v>
       </c>
       <c r="T4">
-        <v>0.21390022108313</v>
+        <v>0.01231931626674791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.82423188352909</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H5">
-        <v>72.82423188352909</v>
+        <v>100.699955</v>
       </c>
       <c r="I5">
-        <v>0.1889092284468269</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J5">
-        <v>0.1889092284468269</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.1586209611413</v>
+        <v>0.03062</v>
       </c>
       <c r="N5">
-        <v>1.1586209611413</v>
+        <v>0.09186</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.01592257599754003</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02200575800565452</v>
       </c>
       <c r="Q5">
-        <v>84.37568153927138</v>
+        <v>1.54171631105</v>
       </c>
       <c r="R5">
-        <v>84.37568153927138</v>
+        <v>9.250297866299999</v>
       </c>
       <c r="S5">
-        <v>0.1889092284468269</v>
+        <v>0.002031052534311152</v>
       </c>
       <c r="T5">
-        <v>0.1889092284468269</v>
+        <v>0.002071398041567832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.8017244794188</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H6">
-        <v>41.8017244794188</v>
+        <v>100.699955</v>
       </c>
       <c r="I6">
-        <v>0.1084354934465141</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J6">
-        <v>0.1084354934465141</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.1586209611413</v>
+        <v>0.03486066666666666</v>
       </c>
       <c r="N6">
-        <v>1.1586209611413</v>
+        <v>0.104582</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.01812774703869727</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.02505340935932245</v>
       </c>
       <c r="Q6">
-        <v>48.43235419370802</v>
+        <v>1.755233782301666</v>
       </c>
       <c r="R6">
-        <v>48.43235419370802</v>
+        <v>10.53140269381</v>
       </c>
       <c r="S6">
-        <v>0.1084354934465141</v>
+        <v>0.002312339823027748</v>
       </c>
       <c r="T6">
-        <v>0.1084354934465141</v>
+        <v>0.002358272915123525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,1912 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.5482314864299</v>
+        <v>50.34997749999999</v>
       </c>
       <c r="H7">
-        <v>63.5482314864299</v>
+        <v>100.699955</v>
       </c>
       <c r="I7">
-        <v>0.1648468795175442</v>
+        <v>0.127558036753911</v>
       </c>
       <c r="J7">
-        <v>0.1648468795175442</v>
+        <v>0.09412982006961877</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1586209611413</v>
+        <v>1.19886</v>
       </c>
       <c r="N7">
-        <v>1.1586209611413</v>
+        <v>2.39772</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.6234140908037504</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.5743919669640534</v>
       </c>
       <c r="Q7">
-        <v>73.62831304363723</v>
+        <v>60.36257402565</v>
       </c>
       <c r="R7">
-        <v>73.62831304363723</v>
+        <v>241.4502961026</v>
       </c>
       <c r="S7">
-        <v>0.1648468795175442</v>
+        <v>0.07952147750765083</v>
       </c>
       <c r="T7">
-        <v>0.1648468795175442</v>
+        <v>0.05406741249976076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>79.43194699999999</v>
+      </c>
+      <c r="H8">
+        <v>238.295841</v>
+      </c>
+      <c r="I8">
+        <v>0.2012351090893876</v>
+      </c>
+      <c r="J8">
+        <v>0.2227483084443135</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.395945</v>
+      </c>
+      <c r="N8">
+        <v>0.79189</v>
+      </c>
+      <c r="O8">
+        <v>0.20589367581143</v>
+      </c>
+      <c r="P8">
+        <v>0.1897032408784863</v>
+      </c>
+      <c r="Q8">
+        <v>31.450682254915</v>
+      </c>
+      <c r="R8">
+        <v>188.70409352949</v>
+      </c>
+      <c r="S8">
+        <v>0.04143303631272812</v>
+      </c>
+      <c r="T8">
+        <v>0.04225607601208697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>79.43194699999999</v>
+      </c>
+      <c r="H9">
+        <v>238.295841</v>
+      </c>
+      <c r="I9">
+        <v>0.2012351090893876</v>
+      </c>
+      <c r="J9">
+        <v>0.2227483084443135</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.08066233333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.241987</v>
+      </c>
+      <c r="O9">
+        <v>0.04194487696404005</v>
+      </c>
+      <c r="P9">
+        <v>0.05796981670492401</v>
+      </c>
+      <c r="Q9">
+        <v>6.407166186229666</v>
+      </c>
+      <c r="R9">
+        <v>57.664495676067</v>
+      </c>
+      <c r="S9">
+        <v>0.008440781891599542</v>
+      </c>
+      <c r="T9">
+        <v>0.01291267861184873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>79.43194699999999</v>
+      </c>
+      <c r="H10">
+        <v>238.295841</v>
+      </c>
+      <c r="I10">
+        <v>0.2012351090893876</v>
+      </c>
+      <c r="J10">
+        <v>0.2227483084443135</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1821076666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.546323</v>
+      </c>
+      <c r="O10">
+        <v>0.09469703338454236</v>
+      </c>
+      <c r="P10">
+        <v>0.1308758080875592</v>
+      </c>
+      <c r="Q10">
+        <v>14.46516652696033</v>
+      </c>
+      <c r="R10">
+        <v>130.186498742643</v>
+      </c>
+      <c r="S10">
+        <v>0.01905636784357976</v>
+      </c>
+      <c r="T10">
+        <v>0.02915236486778642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>79.43194699999999</v>
+      </c>
+      <c r="H11">
+        <v>238.295841</v>
+      </c>
+      <c r="I11">
+        <v>0.2012351090893876</v>
+      </c>
+      <c r="J11">
+        <v>0.2227483084443135</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03062</v>
+      </c>
+      <c r="N11">
+        <v>0.09186</v>
+      </c>
+      <c r="O11">
+        <v>0.01592257599754003</v>
+      </c>
+      <c r="P11">
+        <v>0.02200575800565452</v>
+      </c>
+      <c r="Q11">
+        <v>2.43220621714</v>
+      </c>
+      <c r="R11">
+        <v>21.88985595426</v>
+      </c>
+      <c r="S11">
+        <v>0.003204181317849033</v>
+      </c>
+      <c r="T11">
+        <v>0.004901745371794453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>79.43194699999999</v>
+      </c>
+      <c r="H12">
+        <v>238.295841</v>
+      </c>
+      <c r="I12">
+        <v>0.2012351090893876</v>
+      </c>
+      <c r="J12">
+        <v>0.2227483084443135</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.03486066666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.104582</v>
+      </c>
+      <c r="O12">
+        <v>0.01812774703869727</v>
+      </c>
+      <c r="P12">
+        <v>0.02505340935932245</v>
+      </c>
+      <c r="Q12">
+        <v>2.769050627051333</v>
+      </c>
+      <c r="R12">
+        <v>24.921455643462</v>
+      </c>
+      <c r="S12">
+        <v>0.003647939152877068</v>
+      </c>
+      <c r="T12">
+        <v>0.005580604555552007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>79.43194699999999</v>
+      </c>
+      <c r="H13">
+        <v>238.295841</v>
+      </c>
+      <c r="I13">
+        <v>0.2012351090893876</v>
+      </c>
+      <c r="J13">
+        <v>0.2227483084443135</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.19886</v>
+      </c>
+      <c r="N13">
+        <v>2.39772</v>
+      </c>
+      <c r="O13">
+        <v>0.6234140908037504</v>
+      </c>
+      <c r="P13">
+        <v>0.5743919669640534</v>
+      </c>
+      <c r="Q13">
+        <v>95.22778398042</v>
+      </c>
+      <c r="R13">
+        <v>571.36670388252</v>
+      </c>
+      <c r="S13">
+        <v>0.1254528025707541</v>
+      </c>
+      <c r="T13">
+        <v>0.1279448390252449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>83.28695666666665</v>
+      </c>
+      <c r="H14">
+        <v>249.86087</v>
+      </c>
+      <c r="I14">
+        <v>0.2110014980564403</v>
+      </c>
+      <c r="J14">
+        <v>0.2335587809899062</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.395945</v>
+      </c>
+      <c r="N14">
+        <v>0.79189</v>
+      </c>
+      <c r="O14">
+        <v>0.20589367581143</v>
+      </c>
+      <c r="P14">
+        <v>0.1897032408784863</v>
+      </c>
+      <c r="Q14">
+        <v>32.97705405738333</v>
+      </c>
+      <c r="R14">
+        <v>197.8623243443</v>
+      </c>
+      <c r="S14">
+        <v>0.04344387403655878</v>
+      </c>
+      <c r="T14">
+        <v>0.04430685768941381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>83.28695666666665</v>
+      </c>
+      <c r="H15">
+        <v>249.86087</v>
+      </c>
+      <c r="I15">
+        <v>0.2110014980564403</v>
+      </c>
+      <c r="J15">
+        <v>0.2335587809899062</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.08066233333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.241987</v>
+      </c>
+      <c r="O15">
+        <v>0.04194487696404005</v>
+      </c>
+      <c r="P15">
+        <v>0.05796981670492401</v>
+      </c>
+      <c r="Q15">
+        <v>6.718120260965555</v>
+      </c>
+      <c r="R15">
+        <v>60.46308234868999</v>
+      </c>
+      <c r="S15">
+        <v>0.008850431875205523</v>
+      </c>
+      <c r="T15">
+        <v>0.01353935972381035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>83.28695666666665</v>
+      </c>
+      <c r="H16">
+        <v>249.86087</v>
+      </c>
+      <c r="I16">
+        <v>0.2110014980564403</v>
+      </c>
+      <c r="J16">
+        <v>0.2335587809899062</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1821076666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.546323</v>
+      </c>
+      <c r="O16">
+        <v>0.09469703338454236</v>
+      </c>
+      <c r="P16">
+        <v>0.1308758080875592</v>
+      </c>
+      <c r="Q16">
+        <v>15.16719334233444</v>
+      </c>
+      <c r="R16">
+        <v>136.50474008101</v>
+      </c>
+      <c r="S16">
+        <v>0.01998121590563917</v>
+      </c>
+      <c r="T16">
+        <v>0.03056719419799924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>83.28695666666665</v>
+      </c>
+      <c r="H17">
+        <v>249.86087</v>
+      </c>
+      <c r="I17">
+        <v>0.2110014980564403</v>
+      </c>
+      <c r="J17">
+        <v>0.2335587809899062</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03062</v>
+      </c>
+      <c r="N17">
+        <v>0.09186</v>
+      </c>
+      <c r="O17">
+        <v>0.01592257599754003</v>
+      </c>
+      <c r="P17">
+        <v>0.02200575800565452</v>
+      </c>
+      <c r="Q17">
+        <v>2.550246613133333</v>
+      </c>
+      <c r="R17">
+        <v>22.9522195182</v>
+      </c>
+      <c r="S17">
+        <v>0.003359687388398465</v>
+      </c>
+      <c r="T17">
+        <v>0.005139638014559538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.28695666666665</v>
+      </c>
+      <c r="H18">
+        <v>249.86087</v>
+      </c>
+      <c r="I18">
+        <v>0.2110014980564403</v>
+      </c>
+      <c r="J18">
+        <v>0.2335587809899062</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.03486066666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.104582</v>
+      </c>
+      <c r="O18">
+        <v>0.01812774703869727</v>
+      </c>
+      <c r="P18">
+        <v>0.02505340935932245</v>
+      </c>
+      <c r="Q18">
+        <v>2.903438834037777</v>
+      </c>
+      <c r="R18">
+        <v>26.13094950634</v>
+      </c>
+      <c r="S18">
+        <v>0.003824981781553322</v>
+      </c>
+      <c r="T18">
+        <v>0.005851443749604458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.28695666666665</v>
+      </c>
+      <c r="H19">
+        <v>249.86087</v>
+      </c>
+      <c r="I19">
+        <v>0.2110014980564403</v>
+      </c>
+      <c r="J19">
+        <v>0.2335587809899062</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.19886</v>
+      </c>
+      <c r="N19">
+        <v>2.39772</v>
+      </c>
+      <c r="O19">
+        <v>0.6234140908037504</v>
+      </c>
+      <c r="P19">
+        <v>0.5743919669640534</v>
+      </c>
+      <c r="Q19">
+        <v>99.84940086939999</v>
+      </c>
+      <c r="R19">
+        <v>599.0964052163999</v>
+      </c>
+      <c r="S19">
+        <v>0.131541307069085</v>
+      </c>
+      <c r="T19">
+        <v>0.1341542876145188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>73.31899266666666</v>
+      </c>
+      <c r="H20">
+        <v>219.956978</v>
+      </c>
+      <c r="I20">
+        <v>0.1857483801523923</v>
+      </c>
+      <c r="J20">
+        <v>0.2056059584356031</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.395945</v>
+      </c>
+      <c r="N20">
+        <v>0.79189</v>
+      </c>
+      <c r="O20">
+        <v>0.20589367581143</v>
+      </c>
+      <c r="P20">
+        <v>0.1897032408784863</v>
+      </c>
+      <c r="Q20">
+        <v>29.03028855140333</v>
+      </c>
+      <c r="R20">
+        <v>174.18173130842</v>
+      </c>
+      <c r="S20">
+        <v>0.03824441676559492</v>
+      </c>
+      <c r="T20">
+        <v>0.03900411665916126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>73.31899266666666</v>
+      </c>
+      <c r="H21">
+        <v>219.956978</v>
+      </c>
+      <c r="I21">
+        <v>0.1857483801523923</v>
+      </c>
+      <c r="J21">
+        <v>0.2056059584356031</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.08066233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.241987</v>
+      </c>
+      <c r="O21">
+        <v>0.04194487696404005</v>
+      </c>
+      <c r="P21">
+        <v>0.05796981670492401</v>
+      </c>
+      <c r="Q21">
+        <v>5.914081026142888</v>
+      </c>
+      <c r="R21">
+        <v>53.226729235286</v>
+      </c>
+      <c r="S21">
+        <v>0.007791192951761834</v>
+      </c>
+      <c r="T21">
+        <v>0.01191893972395213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>73.31899266666666</v>
+      </c>
+      <c r="H22">
+        <v>219.956978</v>
+      </c>
+      <c r="I22">
+        <v>0.1857483801523923</v>
+      </c>
+      <c r="J22">
+        <v>0.2056059584356031</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1821076666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.546323</v>
+      </c>
+      <c r="O22">
+        <v>0.09469703338454236</v>
+      </c>
+      <c r="P22">
+        <v>0.1308758080875592</v>
+      </c>
+      <c r="Q22">
+        <v>13.35195067687711</v>
+      </c>
+      <c r="R22">
+        <v>120.167556091894</v>
+      </c>
+      <c r="S22">
+        <v>0.01758982055641576</v>
+      </c>
+      <c r="T22">
+        <v>0.02690884595787667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>73.31899266666666</v>
+      </c>
+      <c r="H23">
+        <v>219.956978</v>
+      </c>
+      <c r="I23">
+        <v>0.1857483801523923</v>
+      </c>
+      <c r="J23">
+        <v>0.2056059584356031</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03062</v>
+      </c>
+      <c r="N23">
+        <v>0.09186</v>
+      </c>
+      <c r="O23">
+        <v>0.01592257599754003</v>
+      </c>
+      <c r="P23">
+        <v>0.02200575800565452</v>
+      </c>
+      <c r="Q23">
+        <v>2.245027555453333</v>
+      </c>
+      <c r="R23">
+        <v>20.20524799908</v>
+      </c>
+      <c r="S23">
+        <v>0.002957592699396422</v>
+      </c>
+      <c r="T23">
+        <v>0.004524514965854542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>73.31899266666666</v>
+      </c>
+      <c r="H24">
+        <v>219.956978</v>
+      </c>
+      <c r="I24">
+        <v>0.1857483801523923</v>
+      </c>
+      <c r="J24">
+        <v>0.2056059584356031</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03486066666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.104582</v>
+      </c>
+      <c r="O24">
+        <v>0.01812774703869727</v>
+      </c>
+      <c r="P24">
+        <v>0.02505340935932245</v>
+      </c>
+      <c r="Q24">
+        <v>2.555948963688444</v>
+      </c>
+      <c r="R24">
+        <v>23.003540673196</v>
+      </c>
+      <c r="S24">
+        <v>0.003367199648250344</v>
+      </c>
+      <c r="T24">
+        <v>0.005151130243403001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>73.31899266666666</v>
+      </c>
+      <c r="H25">
+        <v>219.956978</v>
+      </c>
+      <c r="I25">
+        <v>0.1857483801523923</v>
+      </c>
+      <c r="J25">
+        <v>0.2056059584356031</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.19886</v>
+      </c>
+      <c r="N25">
+        <v>2.39772</v>
+      </c>
+      <c r="O25">
+        <v>0.6234140908037504</v>
+      </c>
+      <c r="P25">
+        <v>0.5743919669640534</v>
+      </c>
+      <c r="Q25">
+        <v>87.89920754836</v>
+      </c>
+      <c r="R25">
+        <v>527.39524529016</v>
+      </c>
+      <c r="S25">
+        <v>0.1157981575309731</v>
+      </c>
+      <c r="T25">
+        <v>0.1180984108853554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>44.31653833333333</v>
+      </c>
+      <c r="H26">
+        <v>132.949615</v>
+      </c>
+      <c r="I26">
+        <v>0.1122727537570288</v>
+      </c>
+      <c r="J26">
+        <v>0.124275361774244</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.395945</v>
+      </c>
+      <c r="N26">
+        <v>0.79189</v>
+      </c>
+      <c r="O26">
+        <v>0.20589367581143</v>
+      </c>
+      <c r="P26">
+        <v>0.1897032408784863</v>
+      </c>
+      <c r="Q26">
+        <v>17.54691177039167</v>
+      </c>
+      <c r="R26">
+        <v>105.28147062235</v>
+      </c>
+      <c r="S26">
+        <v>0.0231162499645062</v>
+      </c>
+      <c r="T26">
+        <v>0.02357543888992044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>44.31653833333333</v>
+      </c>
+      <c r="H27">
+        <v>132.949615</v>
+      </c>
+      <c r="I27">
+        <v>0.1122727537570288</v>
+      </c>
+      <c r="J27">
+        <v>0.124275361774244</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.08066233333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.241987</v>
+      </c>
+      <c r="O27">
+        <v>0.04194487696404005</v>
+      </c>
+      <c r="P27">
+        <v>0.05796981670492401</v>
+      </c>
+      <c r="Q27">
+        <v>3.574675387222778</v>
+      </c>
+      <c r="R27">
+        <v>32.172078485005</v>
+      </c>
+      <c r="S27">
+        <v>0.004709266842752538</v>
+      </c>
+      <c r="T27">
+        <v>0.007204219942991044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>44.31653833333333</v>
+      </c>
+      <c r="H28">
+        <v>132.949615</v>
+      </c>
+      <c r="I28">
+        <v>0.1122727537570288</v>
+      </c>
+      <c r="J28">
+        <v>0.124275361774244</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1821076666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.546323</v>
+      </c>
+      <c r="O28">
+        <v>0.09469703338454236</v>
+      </c>
+      <c r="P28">
+        <v>0.1308758080875592</v>
+      </c>
+      <c r="Q28">
+        <v>8.070381390627222</v>
+      </c>
+      <c r="R28">
+        <v>72.633432515645</v>
+      </c>
+      <c r="S28">
+        <v>0.01063189671070386</v>
+      </c>
+      <c r="T28">
+        <v>0.01626463839757795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>44.31653833333333</v>
+      </c>
+      <c r="H29">
+        <v>132.949615</v>
+      </c>
+      <c r="I29">
+        <v>0.1122727537570288</v>
+      </c>
+      <c r="J29">
+        <v>0.124275361774244</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03062</v>
+      </c>
+      <c r="N29">
+        <v>0.09186</v>
+      </c>
+      <c r="O29">
+        <v>0.01592257599754003</v>
+      </c>
+      <c r="P29">
+        <v>0.02200575800565452</v>
+      </c>
+      <c r="Q29">
+        <v>1.356972403766667</v>
+      </c>
+      <c r="R29">
+        <v>12.2127516339</v>
+      </c>
+      <c r="S29">
+        <v>0.001787671454149389</v>
+      </c>
+      <c r="T29">
+        <v>0.002734773537269181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>44.31653833333333</v>
+      </c>
+      <c r="H30">
+        <v>132.949615</v>
+      </c>
+      <c r="I30">
+        <v>0.1122727537570288</v>
+      </c>
+      <c r="J30">
+        <v>0.124275361774244</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.03486066666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.104582</v>
+      </c>
+      <c r="O30">
+        <v>0.01812774703869727</v>
+      </c>
+      <c r="P30">
+        <v>0.02505340935932245</v>
+      </c>
+      <c r="Q30">
+        <v>1.544904070658889</v>
+      </c>
+      <c r="R30">
+        <v>13.90413663593</v>
+      </c>
+      <c r="S30">
+        <v>0.002035252079445366</v>
+      </c>
+      <c r="T30">
+        <v>0.003113521511808028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>44.31653833333333</v>
+      </c>
+      <c r="H31">
+        <v>132.949615</v>
+      </c>
+      <c r="I31">
+        <v>0.1122727537570288</v>
+      </c>
+      <c r="J31">
+        <v>0.124275361774244</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.19886</v>
+      </c>
+      <c r="N31">
+        <v>2.39772</v>
+      </c>
+      <c r="O31">
+        <v>0.6234140908037504</v>
+      </c>
+      <c r="P31">
+        <v>0.5743919669640534</v>
+      </c>
+      <c r="Q31">
+        <v>53.1293251463</v>
+      </c>
+      <c r="R31">
+        <v>318.7759508778</v>
+      </c>
+      <c r="S31">
+        <v>0.06999241670547146</v>
+      </c>
+      <c r="T31">
+        <v>0.07138276949467734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>64.01769849999999</v>
+      </c>
+      <c r="H32">
+        <v>128.035397</v>
+      </c>
+      <c r="I32">
+        <v>0.16218422219084</v>
+      </c>
+      <c r="J32">
+        <v>0.1196817702863145</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.395945</v>
+      </c>
+      <c r="N32">
+        <v>0.79189</v>
+      </c>
+      <c r="O32">
+        <v>0.20589367581143</v>
+      </c>
+      <c r="P32">
+        <v>0.1897032408784863</v>
+      </c>
+      <c r="Q32">
+        <v>25.3474876325825</v>
+      </c>
+      <c r="R32">
+        <v>101.38995053033</v>
+      </c>
+      <c r="S32">
+        <v>0.03339270566548974</v>
+      </c>
+      <c r="T32">
+        <v>0.02270401969738839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>64.01769849999999</v>
+      </c>
+      <c r="H33">
+        <v>128.035397</v>
+      </c>
+      <c r="I33">
+        <v>0.16218422219084</v>
+      </c>
+      <c r="J33">
+        <v>0.1196817702863145</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.08066233333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.241987</v>
+      </c>
+      <c r="O33">
+        <v>0.04194487696404005</v>
+      </c>
+      <c r="P33">
+        <v>0.05796981670492401</v>
+      </c>
+      <c r="Q33">
+        <v>5.163816935639833</v>
+      </c>
+      <c r="R33">
+        <v>30.982901613839</v>
+      </c>
+      <c r="S33">
+        <v>0.006802797245303318</v>
+      </c>
+      <c r="T33">
+        <v>0.006937930286418472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>64.01769849999999</v>
+      </c>
+      <c r="H34">
+        <v>128.035397</v>
+      </c>
+      <c r="I34">
+        <v>0.16218422219084</v>
+      </c>
+      <c r="J34">
+        <v>0.1196817702863145</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1821076666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.546323</v>
+      </c>
+      <c r="O34">
+        <v>0.09469703338454236</v>
+      </c>
+      <c r="P34">
+        <v>0.1308758080875592</v>
+      </c>
+      <c r="Q34">
+        <v>11.65811369920517</v>
+      </c>
+      <c r="R34">
+        <v>69.948682195231</v>
+      </c>
+      <c r="S34">
+        <v>0.01535836470325201</v>
+      </c>
+      <c r="T34">
+        <v>0.01566344839957105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>64.01769849999999</v>
+      </c>
+      <c r="H35">
+        <v>128.035397</v>
+      </c>
+      <c r="I35">
+        <v>0.16218422219084</v>
+      </c>
+      <c r="J35">
+        <v>0.1196817702863145</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.03062</v>
+      </c>
+      <c r="N35">
+        <v>0.09186</v>
+      </c>
+      <c r="O35">
+        <v>0.01592257599754003</v>
+      </c>
+      <c r="P35">
+        <v>0.02200575800565452</v>
+      </c>
+      <c r="Q35">
+        <v>1.96022192807</v>
+      </c>
+      <c r="R35">
+        <v>11.76133156842</v>
+      </c>
+      <c r="S35">
+        <v>0.002582390603435568</v>
+      </c>
+      <c r="T35">
+        <v>0.00263368807460897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>64.01769849999999</v>
+      </c>
+      <c r="H36">
+        <v>128.035397</v>
+      </c>
+      <c r="I36">
+        <v>0.16218422219084</v>
+      </c>
+      <c r="J36">
+        <v>0.1196817702863145</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.03486066666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.104582</v>
+      </c>
+      <c r="O36">
+        <v>0.01812774703869727</v>
+      </c>
+      <c r="P36">
+        <v>0.02505340935932245</v>
+      </c>
+      <c r="Q36">
+        <v>2.231699648175666</v>
+      </c>
+      <c r="R36">
+        <v>13.390197889054</v>
+      </c>
+      <c r="S36">
+        <v>0.002940034553543419</v>
+      </c>
+      <c r="T36">
+        <v>0.002998436383831432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>64.01769849999999</v>
+      </c>
+      <c r="H37">
+        <v>128.035397</v>
+      </c>
+      <c r="I37">
+        <v>0.16218422219084</v>
+      </c>
+      <c r="J37">
+        <v>0.1196817702863145</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.19886</v>
+      </c>
+      <c r="N37">
+        <v>2.39772</v>
+      </c>
+      <c r="O37">
+        <v>0.6234140908037504</v>
+      </c>
+      <c r="P37">
+        <v>0.5743919669640534</v>
+      </c>
+      <c r="Q37">
+        <v>76.74825802370999</v>
+      </c>
+      <c r="R37">
+        <v>306.99303209484</v>
+      </c>
+      <c r="S37">
+        <v>0.101107929419816</v>
+      </c>
+      <c r="T37">
+        <v>0.06874424744449618</v>
       </c>
     </row>
   </sheetData>
